--- a/02 CLanguage/016 指针数组(字符串指针数组) 结构体指针(箭头获取成员) 扫描结构体.xlsx
+++ b/02 CLanguage/016 指针数组(字符串指针数组) 结构体指针(箭头获取成员) 扫描结构体.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\02 CLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE2AB36-AF57-4BA0-AF02-E6AAB3310481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAFB9C7-B1ED-4330-AE85-4F7A30C340EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="135">
   <si>
     <t>1、指针数组</t>
   </si>
@@ -340,39 +340,6 @@
     <t>char* arr[]={</t>
   </si>
   <si>
-    <t>auto, "break", "case",</t>
-  </si>
-  <si>
-    <t>char, "const", "continue",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default, "do", "double", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">else, "enum", "extern", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">float, "for", "goto", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if, "int", "long", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">register, "return", "short", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">signed, "sizeof", "static", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">struct, "switch", "typedef", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">union, "unsigned", "void", </t>
-  </si>
-  <si>
-    <t>volatile, "while","\0"</t>
-  </si>
-  <si>
     <t>while(*arr[i])</t>
   </si>
   <si>
@@ -407,12 +374,6 @@
   </si>
   <si>
     <t>break;</t>
-  </si>
-  <si>
-    <t>ptr=(char*)p;</t>
-  </si>
-  <si>
-    <t>p=(Player*)++ptr;</t>
   </si>
   <si>
     <t xml:space="preserve"> // 避免超过搜索范围</t>
@@ -428,6 +389,61 @@
   </si>
   <si>
     <t xml:space="preserve">   箭头(-&gt;)用于结构体指针 获取成员</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>// ptr=(char*)p;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>// p=(Player*)++ptr;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>((char*)p)++;</t>
+  </si>
+  <si>
+    <t>"auto", "break", "case",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"char", "const", "continue",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"default", "do", "double", </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"else", "enum", "extern", </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"float", "for", "goto", </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"if", "int", "long", </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"register", "return", "short", </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"signed", "sizeof", "static", </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"struct", "switch", "typedef", </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"union", "unsigned", "void", </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"volatile", "while","\0"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -445,6 +461,7 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -452,6 +469,7 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -459,11 +477,13 @@
       <sz val="12"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1332,8 +1352,8 @@
   </sheetPr>
   <dimension ref="B4:T46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1426,7 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12" t="s">
@@ -1701,80 +1721,80 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>105</v>
+      <c r="I27" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" s="1"/>
+      <c r="I28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="1"/>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="1"/>
+      <c r="I29" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="1"/>
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
-        <v>108</v>
-      </c>
-      <c r="M30" s="1"/>
+      <c r="I30" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K30" s="1"/>
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
-        <v>109</v>
-      </c>
-      <c r="M31" s="1"/>
+      <c r="I31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="1"/>
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="I32" t="s">
-        <v>110</v>
-      </c>
-      <c r="M32" s="1"/>
+      <c r="I32" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="1"/>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M33" s="1"/>
+      <c r="I33" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="1"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="I34" t="s">
-        <v>112</v>
-      </c>
-      <c r="M34" s="1"/>
+      <c r="I34" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34" s="1"/>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
-        <v>113</v>
-      </c>
-      <c r="M35" s="1"/>
+      <c r="I35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>114</v>
-      </c>
-      <c r="M36" s="1"/>
+      <c r="I36" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K36" s="1"/>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>115</v>
-      </c>
-      <c r="M37" s="1"/>
+      <c r="I37" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K37" s="1"/>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="7:14" x14ac:dyDescent="0.25">
@@ -1786,7 +1806,7 @@
     </row>
     <row r="39" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -1800,14 +1820,14 @@
     </row>
     <row r="41" spans="7:14" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="7:14" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -1847,7 +1867,7 @@
   </sheetPr>
   <dimension ref="B3:J69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -2452,8 +2472,8 @@
   </sheetPr>
   <dimension ref="C1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2471,7 +2491,7 @@
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -2505,7 +2525,7 @@
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2642,7 +2662,7 @@
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -2653,7 +2673,7 @@
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -2673,11 +2693,11 @@
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
       <c r="D21" s="15" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -2698,7 +2718,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="15" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2709,7 +2729,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -2732,7 +2752,7 @@
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="14"/>
@@ -2743,7 +2763,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="14"/>
@@ -2754,7 +2774,7 @@
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="14"/>
@@ -2775,7 +2795,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -2786,11 +2806,11 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="15" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -2799,7 +2819,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -2808,10 +2828,10 @@
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
-      <c r="D33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -2819,7 +2839,9 @@
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -2860,7 +2882,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>